--- a/hourly datasets/cap_gen_year9final.xlsx
+++ b/hourly datasets/cap_gen_year9final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1100689981494012</v>
+        <v>0.1109388365702823</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002134429939574353</v>
+        <v>-0.0016291604756874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004240518158960595</v>
+        <v>0.0006523583492759668</v>
       </c>
       <c r="D3" t="n">
-        <v>1.704108281572311</v>
+        <v>-0.174202558631421</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1530014981373218</v>
+        <v>0.05701432490148314</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.006177034183838039</v>
+        <v>-0.002907763688614172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01044589406298674</v>
+        <v>-0.0003505572627606288</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1122034280889756</v>
+        <v>0.1093096760945949</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003741548591516094</v>
+        <v>0.00139332588845911</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006174130616205973</v>
+        <v>0.0008484314525409661</v>
       </c>
       <c r="D4" t="n">
-        <v>3.077374607736943</v>
+        <v>3.987210621696983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1789897489884842</v>
+        <v>0.008950513493478867</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00835979831065722</v>
+        <v>-0.0002695747103406285</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01584289549368941</v>
+        <v>0.00305622648725885</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1138105467409173</v>
+        <v>0.1123321624587414</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004262015506357238</v>
+        <v>0.005581518874381719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004870649594394368</v>
+        <v>0.001925553329321675</v>
       </c>
       <c r="D5" t="n">
-        <v>2.063057943986898</v>
+        <v>3.962111742747132</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09573178515283245</v>
+        <v>0.03831619871466767</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.005284509299726877</v>
+        <v>0.001807490501437142</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01380854031244136</v>
+        <v>0.009355547247326297</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1143310136557585</v>
+        <v>0.116520355444664</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005306357119707841</v>
+        <v>0.01320294821679943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005156556011120044</v>
+        <v>0.006764283919977927</v>
       </c>
       <c r="D6" t="n">
-        <v>2.137272497072932</v>
+        <v>6.753365811296738</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1134402905165683</v>
+        <v>1.239456779502655</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001076984769491429</v>
+        <v>0.002096001606625188</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0138772103645146</v>
+        <v>0.02081402781299595</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1153753552691091</v>
+        <v>0.1241417847870818</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005890401399479023</v>
+        <v>0.01354645026770222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002965355621017173</v>
+        <v>0.004661625051623263</v>
       </c>
       <c r="D7" t="n">
-        <v>1.688269709488963</v>
+        <v>6.225105119279846</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1757538844068611</v>
+        <v>1.404637671028977</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009828538201089657</v>
+        <v>0.006553733490101049</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0095676734840633</v>
+        <v>0.01687766953044248</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1159593995488803</v>
+        <v>0.1244852868379845</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005118559928072706</v>
+        <v>0.01811551634441686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003664317629029135</v>
+        <v>0.005306897619347763</v>
       </c>
       <c r="D8" t="n">
-        <v>1.161669252958206</v>
+        <v>5.833685441470382</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06653440416830994</v>
+        <v>1.510131500729628</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002183427580991205</v>
+        <v>0.01011036267972027</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01056404019615973</v>
+        <v>0.02197282198531864</v>
       </c>
       <c r="H8" t="n">
-        <v>0.115187558077474</v>
+        <v>0.1290543529146992</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008892308570535386</v>
+        <v>0.01973297011959893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004472748024549892</v>
+        <v>0.005350861388470732</v>
       </c>
       <c r="D9" t="n">
-        <v>1.517228610189234</v>
+        <v>6.197859341183493</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06168220613993664</v>
+        <v>1.307030090128754</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01192467822440055</v>
+        <v>0.01098170142909386</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01560168417045982</v>
+        <v>0.0255692121485739</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1189613067199366</v>
+        <v>0.1306718066898812</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1100689981494012</v>
+        <v>-0.1109388365702823</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001606753639963607</v>
+        <v>0.0004838750934690815</v>
       </c>
       <c r="D10" t="n">
-        <v>-104.5680837141068</v>
+        <v>-238.6626675955286</v>
       </c>
       <c r="E10" t="n">
-        <v>1.279369365654554e-08</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1132182555783932</v>
+        <v>-0.111887217531127</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1069197407204094</v>
+        <v>-0.1099904556094376</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04809465702319597</v>
+        <v>-0.05050962494755598</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001738728534800294</v>
+        <v>0.0005357100987420404</v>
       </c>
       <c r="D11" t="n">
-        <v>-39.17053679011054</v>
+        <v>-97.25040717689463</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01326672872961644</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05150258435007258</v>
+        <v>-0.05155960098074986</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04468672969631935</v>
+        <v>-0.04945964891436212</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06197434112620527</v>
+        <v>0.06042921162272634</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0399140245667509</v>
+        <v>-0.04058149768070585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001690681647927154</v>
+        <v>0.000512333044328639</v>
       </c>
       <c r="D12" t="n">
-        <v>-33.84402250502983</v>
+        <v>-81.71223266686891</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01604350861656585</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04322778001672976</v>
+        <v>-0.04158565537488565</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03660026911677202</v>
+        <v>-0.03957733998652604</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07015497358265035</v>
+        <v>0.07035733888957647</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03232650332496898</v>
+        <v>-0.03436092542434475</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001668515563538927</v>
+        <v>0.0005132955095480475</v>
       </c>
       <c r="D13" t="n">
-        <v>-29.59858730939947</v>
+        <v>-70.07177287373671</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01093116948302335</v>
+        <v>1.143355490286354e-235</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03559681390221855</v>
+        <v>-0.03536696951093642</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0290561927477194</v>
+        <v>-0.03335488133775304</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07774249482443227</v>
+        <v>0.07657791114593757</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02445885582746865</v>
+        <v>-0.0253950015553659</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001660207003661351</v>
+        <v>0.0005082703755546098</v>
       </c>
       <c r="D14" t="n">
-        <v>-23.29471312645795</v>
+        <v>-52.50196569880657</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01718709965632204</v>
+        <v>2.465802198087558e-68</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02771288291258746</v>
+        <v>-0.02639119651204766</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02120482874234983</v>
+        <v>-0.02439880659868415</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08561014232193259</v>
+        <v>0.08554383501491641</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02197857871489186</v>
+        <v>-0.02299253311204904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00165307410245943</v>
+        <v>0.000502047578292078</v>
       </c>
       <c r="D15" t="n">
-        <v>-20.8301928787308</v>
+        <v>-46.34328035224348</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02984617497755426</v>
+        <v>1.137325311142328e-21</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02521862582632128</v>
+        <v>-0.0239765315921851</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01873853160346244</v>
+        <v>-0.022008534631913</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08809041943450938</v>
+        <v>0.08794630345823327</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02016057194185656</v>
+        <v>-0.02140628938593895</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001625106507691917</v>
+        <v>0.0004935106785451833</v>
       </c>
       <c r="D16" t="n">
-        <v>-19.1435509315387</v>
+        <v>-43.97172109921745</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01854991920718372</v>
+        <v>1.542454981320542e-08</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02334580111856088</v>
+        <v>-0.02237355578107833</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01697534276515227</v>
+        <v>-0.02043902299079957</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08990842620754469</v>
+        <v>0.08953254718434338</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01896601921572279</v>
+        <v>-0.01943525018266713</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00163295068802624</v>
+        <v>0.0004916961970893901</v>
       </c>
       <c r="D17" t="n">
-        <v>-17.65938973590565</v>
+        <v>-40.28367538507801</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05202687418881834</v>
+        <v>2.488978164370008e-16</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02216662303037995</v>
+        <v>-0.0203989602432947</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01576541540106562</v>
+        <v>-0.01847154012203956</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09110297893367846</v>
+        <v>0.09150358638761519</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01623198508442687</v>
+        <v>-0.01685068517496338</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001649767505704598</v>
+        <v>0.0004950061612120125</v>
       </c>
       <c r="D18" t="n">
-        <v>-15.09940704170523</v>
+        <v>-35.19865291997507</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0406083519071595</v>
+        <v>3.977962305757616e-08</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01946555046817885</v>
+        <v>-0.01782088266886523</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01299841970067489</v>
+        <v>-0.01588048768106153</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09383701306497438</v>
+        <v>0.09408815139531894</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01458403805649102</v>
+        <v>-0.01501808203926332</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001637037677677936</v>
+        <v>0.0004892297790235301</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.79634401364735</v>
+        <v>-32.0160814389201</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06207402261073678</v>
+        <v>0.03984603746357507</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01779265230483503</v>
+        <v>-0.01597695798478599</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01137542380814698</v>
+        <v>-0.01405920609374064</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09548496009291023</v>
+        <v>0.095920754531019</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01086556030756592</v>
+        <v>-0.01252108365273385</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001663462720040993</v>
+        <v>0.0004991999272394913</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.28440799723925</v>
+        <v>-25.19818024462377</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1096146193147735</v>
+        <v>0.001746430920033519</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0141259705731332</v>
+        <v>-0.01349950079166523</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.007605150041998633</v>
+        <v>-0.01154266651380248</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09920343784183532</v>
+        <v>0.09841775291754846</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007820200060373853</v>
+        <v>-0.009419862408693969</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001669191598828337</v>
+        <v>0.0004994981427696024</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.768890031375372</v>
+        <v>-19.51853334649007</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04036405690169009</v>
+        <v>1.637029451479686e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01109183846838728</v>
+        <v>-0.01039886401750905</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.004548561652360429</v>
+        <v>-0.008440860799878883</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1022487980890274</v>
+        <v>0.1015189741615884</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005650103898553052</v>
+        <v>-0.006925118339445624</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001655824146481919</v>
+        <v>0.0004941934737623512</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.36899446050967</v>
+        <v>-14.02053210846501</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0661503617217514</v>
+        <v>0.07372390267681711</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.008895539959241871</v>
+        <v>-0.007893722960439862</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.002404667837864233</v>
+        <v>-0.005956513718451388</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1044188942508482</v>
+        <v>0.1040137182308367</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004225750600162426</v>
+        <v>-0.005915836906182538</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001656399265946349</v>
+        <v>0.0004867659838057682</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.232783683767142</v>
+        <v>-11.56649070967306</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1036507309939957</v>
+        <v>0.02548451979662011</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.007472314454318792</v>
+        <v>-0.006869883862752247</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0009791867460060618</v>
+        <v>-0.004961789949612829</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1058432475492388</v>
+        <v>0.1050229996640998</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003499758876181445</v>
+        <v>-0.005951234553062235</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00166752828013228</v>
+        <v>0.0004798332081502496</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.346716444409882</v>
+        <v>-11.94808101774407</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1334200830473012</v>
+        <v>0.14750057447387</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006768138917572122</v>
+        <v>-0.006891693499731146</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0002313788347907709</v>
+        <v>-0.005010775606393326</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1065692392732198</v>
+        <v>0.1049876020172201</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0008268938451948224</v>
+        <v>-0.002903862533398152</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001658966731400625</v>
+        <v>0.0004692235485583242</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.580616412078067</v>
+        <v>-5.595519899335898</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1445815385320576</v>
+        <v>0.0903016206341075</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.00407849104996701</v>
+        <v>-0.003823526868278516</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002424703359577366</v>
+        <v>-0.001984198198517787</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1092421043042064</v>
+        <v>0.1080349740368842</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01206245059296525</v>
+        <v>0.04076821288858381</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001623090344798459</v>
+        <v>0.005219080897656299</v>
       </c>
       <c r="D26" t="n">
-        <v>3.593372403053841</v>
+        <v>21.55276334085174</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02947939453267011</v>
+        <v>1.85880764553502</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01656141859909345</v>
+        <v>0.03405920785269608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01514735793788568</v>
+        <v>0.04117867599054097</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1221314487423665</v>
+        <v>0.1517070494588661</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year9final.xlsx
+++ b/hourly datasets/cap_gen_year9final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1109388365702823</v>
+        <v>0.1099887863332565</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0016291604756874</v>
+        <v>-0.002568839383852774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006523583492759668</v>
+        <v>0.0006584536504577386</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.174202558631421</v>
+        <v>-0.8900743269994957</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05701432490148314</v>
+        <v>0.114317128472</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002907763688614172</v>
+        <v>-0.003859389261794352</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0003505572627606288</v>
+        <v>-0.001278289505911198</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1093096760945949</v>
+        <v>0.1074199469494038</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00139332588845911</v>
+        <v>-0.0004936490290026876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008484314525409661</v>
+        <v>0.0008354515315471438</v>
       </c>
       <c r="D4" t="n">
-        <v>3.987210621696983</v>
+        <v>2.828336572438792</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008950513493478867</v>
+        <v>0.01457872885594496</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0002695747103406285</v>
+        <v>-0.002131109438723142</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00305622648725885</v>
+        <v>0.001143811380717765</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1123321624587414</v>
+        <v>0.1094951373042539</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005581518874381719</v>
+        <v>0.002398445848543961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001925553329321675</v>
+        <v>0.002416631342345671</v>
       </c>
       <c r="D5" t="n">
-        <v>3.962111742747132</v>
+        <v>2.539535107860297</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03831619871466767</v>
+        <v>0.05736498720921358</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001807490501437142</v>
+        <v>-0.002338080495590969</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009355547247326297</v>
+        <v>0.007134972192678891</v>
       </c>
       <c r="H5" t="n">
-        <v>0.116520355444664</v>
+        <v>0.1123872321818005</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01320294821679943</v>
+        <v>0.01079023024193671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006764283919977927</v>
+        <v>0.006780819722767916</v>
       </c>
       <c r="D6" t="n">
-        <v>6.753365811296738</v>
+        <v>5.909762266090794</v>
       </c>
       <c r="E6" t="n">
-        <v>1.239456779502655</v>
+        <v>1.249994237529127</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002096001606625188</v>
+        <v>-0.0003121220013520813</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02081402781299595</v>
+        <v>0.01831606408474892</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1241417847870818</v>
+        <v>0.1207790165751932</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01354645026770222</v>
+        <v>0.01317364058514912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004661625051623263</v>
+        <v>0.004705206755944439</v>
       </c>
       <c r="D7" t="n">
-        <v>6.225105119279846</v>
+        <v>5.843575031284614</v>
       </c>
       <c r="E7" t="n">
-        <v>1.404637671028977</v>
+        <v>1.439577158946524</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006553733490101049</v>
+        <v>0.006132360124004066</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01687766953044248</v>
+        <v>0.01647384282615861</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1244852868379845</v>
+        <v>0.1231624269184057</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01811551634441686</v>
+        <v>0.01950937819501707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005306897619347763</v>
+        <v>0.005712775716555782</v>
       </c>
       <c r="D8" t="n">
-        <v>5.833685441470382</v>
+        <v>5.864037256669411</v>
       </c>
       <c r="E8" t="n">
-        <v>1.510131500729628</v>
+        <v>1.544768678118467</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01011036267972027</v>
+        <v>0.01074622524402024</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02197282198531864</v>
+        <v>0.02404351646382341</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1290543529146992</v>
+        <v>0.1294981645282736</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01973297011959893</v>
+        <v>0.01988449862535347</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005350861388470732</v>
+        <v>0.005360137764392083</v>
       </c>
       <c r="D9" t="n">
-        <v>6.197859341183493</v>
+        <v>5.876556580036959</v>
       </c>
       <c r="E9" t="n">
-        <v>1.307030090128754</v>
+        <v>1.374737967855565</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01098170142909386</v>
+        <v>0.01115280991023781</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0255692121485739</v>
+        <v>0.02562004120547438</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1306718066898812</v>
+        <v>0.12987328495861</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1109388365702823</v>
+        <v>-0.1099887863332565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004838750934690815</v>
+        <v>0.0004819487719851751</v>
       </c>
       <c r="D10" t="n">
-        <v>-238.6626675955286</v>
+        <v>-239.4668237468689</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.111887217531127</v>
+        <v>-0.1109333917788857</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1099904556094376</v>
+        <v>-0.1090441808876274</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05050962494755598</v>
+        <v>-0.049417523223978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005357100987420404</v>
+        <v>0.0005330359330070289</v>
       </c>
       <c r="D11" t="n">
-        <v>-97.25040717689463</v>
+        <v>-96.76857278402015</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05155960098074986</v>
+        <v>-0.05046225799446555</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04945964891436212</v>
+        <v>-0.04837278845349046</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06042921162272634</v>
+        <v>0.06057126310927854</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04058149768070585</v>
+        <v>-0.03948463478701838</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000512333044328639</v>
+        <v>0.0005096143298825323</v>
       </c>
       <c r="D12" t="n">
-        <v>-81.71223266686891</v>
+        <v>-81.37498857521176</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04158565537488565</v>
+        <v>-0.04048346390341728</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03957733998652604</v>
+        <v>-0.03848580567061945</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07035733888957647</v>
+        <v>0.07050415154623815</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03436092542434475</v>
+        <v>-0.03355925956769404</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005132955095480475</v>
+        <v>0.0005102355966455662</v>
       </c>
       <c r="D13" t="n">
-        <v>-70.07177287373671</v>
+        <v>-70.02003032165157</v>
       </c>
       <c r="E13" t="n">
-        <v>1.143355490286354e-235</v>
+        <v>2.61342770235412e-168</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03536696951093642</v>
+        <v>-0.03455930633818167</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03335488133775304</v>
+        <v>-0.03255921279720643</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07657791114593757</v>
+        <v>0.0764295267655625</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0253950015553659</v>
+        <v>-0.02485690970343414</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005082703755546098</v>
+        <v>0.000505273618638596</v>
       </c>
       <c r="D14" t="n">
-        <v>-52.50196569880657</v>
+        <v>-52.61486518257387</v>
       </c>
       <c r="E14" t="n">
-        <v>2.465802198087558e-68</v>
+        <v>3.580653870342674e-41</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02639119651204766</v>
+        <v>-0.02584723112462439</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02439880659868415</v>
+        <v>-0.02386658828224389</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08554383501491641</v>
+        <v>0.0851318766298224</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02299253311204904</v>
+        <v>-0.02263541877191468</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000502047578292078</v>
+        <v>0.0004987717014081914</v>
       </c>
       <c r="D15" t="n">
-        <v>-46.34328035224348</v>
+        <v>-47.13905079351265</v>
       </c>
       <c r="E15" t="n">
-        <v>1.137325311142328e-21</v>
+        <v>7.910385547654906e-26</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0239765315921851</v>
+        <v>-0.02361299664873101</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.022008534631913</v>
+        <v>-0.02165784089509835</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08794630345823327</v>
+        <v>0.08735336756134186</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02140628938593895</v>
+        <v>-0.02075089520142706</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004935106785451833</v>
+        <v>0.0004898200540985316</v>
       </c>
       <c r="D16" t="n">
-        <v>-43.97172109921745</v>
+        <v>-43.92129985218244</v>
       </c>
       <c r="E16" t="n">
-        <v>1.542454981320542e-08</v>
+        <v>0.03963524367165874</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02237355578107833</v>
+        <v>-0.02171092809996098</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02043902299079957</v>
+        <v>-0.01979086230289315</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08953254718434338</v>
+        <v>0.08923789113182948</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01943525018266713</v>
+        <v>-0.01880893800371407</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004916961970893901</v>
+        <v>0.000488600898727371</v>
       </c>
       <c r="D17" t="n">
-        <v>-40.28367538507801</v>
+        <v>-40.22586439866289</v>
       </c>
       <c r="E17" t="n">
-        <v>2.488978164370008e-16</v>
+        <v>5.228101428380043e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0203989602432947</v>
+        <v>-0.01976658138895014</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01847154012203956</v>
+        <v>-0.017851294618478</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09150358638761519</v>
+        <v>0.09117984832954247</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01685068517496338</v>
+        <v>-0.01617657583216868</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004950061612120125</v>
+        <v>0.0004923474426737824</v>
       </c>
       <c r="D18" t="n">
-        <v>-35.19865291997507</v>
+        <v>-35.22007966113139</v>
       </c>
       <c r="E18" t="n">
-        <v>3.977962305757616e-08</v>
+        <v>0.0008545311738213271</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01782088266886523</v>
+        <v>-0.01714156233550717</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01588048768106153</v>
+        <v>-0.01521158932883019</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09408815139531894</v>
+        <v>0.09381221050108786</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01501808203926332</v>
+        <v>-0.0143448023085885</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004892297790235301</v>
+        <v>0.0004870203365027536</v>
       </c>
       <c r="D19" t="n">
-        <v>-32.0160814389201</v>
+        <v>-31.87728102146221</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03984603746357507</v>
+        <v>0.01721406942752644</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01597695798478599</v>
+        <v>-0.01529934783041328</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01405920609374064</v>
+        <v>-0.01339025678676372</v>
       </c>
       <c r="H19" t="n">
-        <v>0.095920754531019</v>
+        <v>0.09564398402466803</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01252108365273385</v>
+        <v>-0.0119833855216139</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004991999272394913</v>
+        <v>0.000496532542827968</v>
       </c>
       <c r="D20" t="n">
-        <v>-25.19818024462377</v>
+        <v>-25.10397522625659</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001746430920033519</v>
+        <v>0.04286500904119794</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01349950079166523</v>
+        <v>-0.01295657468411532</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01154266651380248</v>
+        <v>-0.01101019635911249</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09841775291754846</v>
+        <v>0.09800540081164263</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.009419862408693969</v>
+        <v>-0.008781691803728696</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004994981427696024</v>
+        <v>0.0004960086200221359</v>
       </c>
       <c r="D21" t="n">
-        <v>-19.51853334649007</v>
+        <v>-19.25497861051396</v>
       </c>
       <c r="E21" t="n">
-        <v>1.637029451479686e-05</v>
+        <v>0.002265639268025217</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01039886401750905</v>
+        <v>-0.009753854068988876</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.008440860799878883</v>
+        <v>-0.007809529538468512</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1015189741615884</v>
+        <v>0.1012070945295278</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006925118339445624</v>
+        <v>-0.00616204015247644</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004941934737623512</v>
+        <v>0.0004917744987731932</v>
       </c>
       <c r="D22" t="n">
-        <v>-14.02053210846501</v>
+        <v>-13.21148904563642</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07372390267681711</v>
+        <v>0.07326319530466273</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007893722960439862</v>
+        <v>-0.007125903671471406</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005956513718451388</v>
+        <v>-0.005198176633481474</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1040137182308367</v>
+        <v>0.1038267461807801</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005915836906182538</v>
+        <v>-0.00522414132380344</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004867659838057682</v>
+        <v>0.0004847382398753389</v>
       </c>
       <c r="D23" t="n">
-        <v>-11.56649070967306</v>
+        <v>-10.7721384948093</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02548451979662011</v>
+        <v>0.04235994889899913</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.006869883862752247</v>
+        <v>-0.006174213977056768</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004961789949612829</v>
+        <v>-0.004274068670550111</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1050229996640998</v>
+        <v>0.1047646450094531</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005951234553062235</v>
+        <v>-0.005375658182985812</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004798332081502496</v>
+        <v>0.0004767836152305626</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.94808101774407</v>
+        <v>-11.23339165627772</v>
       </c>
       <c r="E24" t="n">
-        <v>0.14750057447387</v>
+        <v>0.1118192471515722</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006891693499731146</v>
+        <v>-0.006310140036379024</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005010775606393326</v>
+        <v>-0.004441176329592599</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1049876020172201</v>
+        <v>0.1046131281502707</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002903862533398152</v>
+        <v>-0.00236966147315801</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004692235485583242</v>
+        <v>0.0004663310439758635</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.595519899335898</v>
+        <v>-4.792277775054687</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0903016206341075</v>
+        <v>0.07532624444742399</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003823526868278516</v>
+        <v>-0.003283656600352694</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001984198198517787</v>
+        <v>-0.001455666345963326</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1080349740368842</v>
+        <v>0.1076191248600985</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04076821288858381</v>
+        <v>0.03807755717382864</v>
       </c>
       <c r="C26" t="n">
-        <v>0.005219080897656299</v>
+        <v>0.004997020268130289</v>
       </c>
       <c r="D26" t="n">
-        <v>21.55276334085174</v>
+        <v>17.70725141679719</v>
       </c>
       <c r="E26" t="n">
-        <v>1.85880764553502</v>
+        <v>1.922029948060158</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03405920785269608</v>
+        <v>0.03184985994415415</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04117867599054097</v>
+        <v>0.03792043235997521</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1517070494588661</v>
+        <v>0.1480663435070852</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year9final.xlsx
+++ b/hourly datasets/cap_gen_year9final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,575 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1099887863332565</v>
+        <v>0.1420418917306261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.002568839383852774</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006584536504577386</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.8900743269994957</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.114317128472</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.003859389261794352</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.001278289505911198</v>
-      </c>
+        <v>0.08931433011438296</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1074199469494038</v>
+        <v>0.231356221845009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0004936490290026876</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0008354515315471438</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.828336572438792</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01457872885594496</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.002131109438723142</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.001143811380717765</v>
-      </c>
+        <v>0.0846119849081709</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1094951373042539</v>
+        <v>0.226653876638797</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002398445848543961</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002416631342345671</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.539535107860297</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.05736498720921358</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.002338080495590969</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.007134972192678891</v>
-      </c>
+        <v>0.06732746811430861</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1123872321818005</v>
+        <v>0.2093693598449347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01079023024193671</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.006780819722767916</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.909762266090794</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.249994237529127</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.0003121220013520813</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01831606408474892</v>
-      </c>
+        <v>0.08614492015239154</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1207790165751932</v>
+        <v>0.2281868118830176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01317364058514912</v>
+        <v>0.00449351340343355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004705206755944439</v>
+        <v>0.0006783867298743031</v>
       </c>
       <c r="D7" t="n">
-        <v>5.843575031284614</v>
+        <v>1.14665081470193</v>
       </c>
       <c r="E7" t="n">
-        <v>1.439577158946524</v>
+        <v>0.01332318233350072</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006132360124004066</v>
+        <v>0.00191998671683986</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01647384282615861</v>
+        <v>0.007067040090027096</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1231624269184057</v>
+        <v>0.1465354051340596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01950937819501707</v>
+        <v>0.00178878384338136</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005712775716555782</v>
+        <v>0.0004799508285177174</v>
       </c>
       <c r="D8" t="n">
-        <v>5.864037256669411</v>
+        <v>0.651938736348508</v>
       </c>
       <c r="E8" t="n">
-        <v>1.544768678118467</v>
+        <v>0.01837577351006568</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01074622524402024</v>
+        <v>0.0008216479015154429</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02404351646382341</v>
+        <v>0.002755919785247319</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1294981645282736</v>
+        <v>0.1438306755740074</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01988449862535347</v>
+        <v>0.0009221525734566949</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005360137764392083</v>
+        <v>0.0005146664927447677</v>
       </c>
       <c r="D9" t="n">
-        <v>5.876556580036959</v>
+        <v>0.4080784672029402</v>
       </c>
       <c r="E9" t="n">
-        <v>1.374737967855565</v>
+        <v>0.00543092563102553</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01115280991023781</v>
+        <v>-8.77876493788979e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02562004120547438</v>
+        <v>0.00193209279629227</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12987328495861</v>
+        <v>0.1429640443040828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1099887863332565</v>
+        <v>0.0009278449723112492</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004819487719851751</v>
+        <v>0.0006675664265184246</v>
       </c>
       <c r="D10" t="n">
-        <v>-239.4668237468689</v>
+        <v>0.4467095837228663</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.005301322601855609</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1109333917788857</v>
+        <v>-0.0003820613893760819</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1090441808876274</v>
+        <v>0.00223775133399856</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1429697367029373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.049417523223978</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005330359330070289</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-96.76857278402015</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.05046225799446555</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04837278845349046</v>
-      </c>
+        <v>0.02774612736661417</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.06057126310927854</v>
+        <v>0.1697880190972402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03948463478701838</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005096143298825323</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-81.37498857521176</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.04048346390341728</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03848580567061945</v>
-      </c>
+        <v>0.04861029241803849</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.07050415154623815</v>
+        <v>0.1906521841486646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03355925956769404</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005102355966455662</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-70.02003032165157</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.61342770235412e-168</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03455930633818167</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.03255921279720643</v>
-      </c>
+        <v>0.06079080430653813</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.0764295267655625</v>
+        <v>0.2028326960371642</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02485690970343414</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.000505273618638596</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-52.61486518257387</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.580653870342674e-41</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02584723112462439</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02386658828224389</v>
-      </c>
+        <v>0.06852525123633543</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.0851318766298224</v>
+        <v>0.2105671429669615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02263541877191468</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0004987717014081914</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-47.13905079351265</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.910385547654906e-26</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02361299664873101</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02165784089509835</v>
-      </c>
+        <v>0.07375975423020817</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.08735336756134186</v>
+        <v>0.2158016459608342</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02075089520142706</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004898200540985316</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-43.92129985218244</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.03963524367165874</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02171092809996098</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.01979086230289315</v>
-      </c>
+        <v>0.07832406582688962</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.08923789113182948</v>
+        <v>0.2203659575575157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01880893800371407</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.000488600898727371</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-40.22586439866289</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.228101428380043e-07</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.01976658138895014</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.017851294618478</v>
-      </c>
+        <v>0.08024976155873299</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.09117984832954247</v>
+        <v>0.2222916532893591</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01617657583216868</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0004923474426737824</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-35.22007966113139</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0008545311738213271</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.01714156233550717</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01521158932883019</v>
-      </c>
+        <v>-0.1420418917306261</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.09381221050108786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0143448023085885</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004870203365027536</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-31.87728102146221</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.01721406942752644</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01529934783041328</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01339025678676372</v>
-      </c>
+        <v>0.08160421282394362</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.09564398402466803</v>
+        <v>0.2236461045545697</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0119833855216139</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.000496532542827968</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-25.10397522625659</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.04286500904119794</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01295657468411532</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.01101019635911249</v>
-      </c>
+        <v>0.08536623179643665</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.09800540081164263</v>
+        <v>0.2274081235270627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.008781691803728696</v>
+        <v>0.08852254523386048</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004960086200221359</v>
+        <v>0.007734238420287054</v>
       </c>
       <c r="D21" t="n">
-        <v>-19.25497861051396</v>
+        <v>20.97924465425589</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002265639268025217</v>
+        <v>0.05241414839685669</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.009753854068988876</v>
+        <v>0.07325150451372635</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007809529538468512</v>
+        <v>0.1037935859539943</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1012070945295278</v>
+        <v>0.2305644369644865</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.00616204015247644</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0004917744987731932</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-13.21148904563642</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.07326319530466273</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.007125903671471406</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.005198176633481474</v>
-      </c>
+        <v>0.09517295634993105</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.1038267461807801</v>
+        <v>0.2372148480805571</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00522414132380344</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0004847382398753389</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-10.7721384948093</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.04235994889899913</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.006174213977056768</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.004274068670550111</v>
-      </c>
+        <v>0.0967133933919144</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.1047646450094531</v>
+        <v>0.2387552851225405</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005375658182985812</v>
+        <v>0.09947719211794674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004767836152305626</v>
+        <v>0.007989822499425139</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.23339165627772</v>
+        <v>22.66929835995995</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1118192471515722</v>
+        <v>0.05416367795593075</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006310140036379024</v>
+        <v>0.08358117657126807</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.004441176329592599</v>
+        <v>0.1153732076646247</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1046131281502707</v>
+        <v>0.2415190838485728</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.00236966147315801</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0004663310439758635</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-4.792277775054687</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.07532624444742399</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.003283656600352694</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.001455666345963326</v>
-      </c>
+        <v>0.099566873188907</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.1076191248600985</v>
+        <v>0.2416087649195331</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.09966828127593025</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2417101730065563</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1018811679504234</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>563429321019.8464</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.2439230596810495</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.09816643378468899</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>18.91640028974876</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>0.2402083255153151</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.03807755717382864</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.004997020268130289</v>
-      </c>
-      <c r="D26" t="n">
-        <v>17.70725141679719</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.922029948060158</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.03184985994415415</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.03792043235997521</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1480663435070852</v>
+      <c r="B29" t="n">
+        <v>0.003094717979980682</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0005717333957162541</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.6443647752318724</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.004700414519145276</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00197264861106527</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.004216787348896132</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1451366097106067</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year9final.xlsx
+++ b/hourly datasets/cap_gen_year9final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1420418917306261</v>
+        <v>0.1069567095850491</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08931433011438296</v>
+        <v>0.09043386850983193</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.231356221845009</v>
+        <v>0.1973905780948811</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0846119849081709</v>
+        <v>0.08657203724954163</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.226653876638797</v>
+        <v>0.1935287468345908</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06732746811430861</v>
+        <v>0.07076940770021801</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.2093693598449347</v>
+        <v>0.1777261172852672</v>
       </c>
     </row>
     <row r="6">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08614492015239154</v>
+        <v>0.08794861539697796</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -562,7 +562,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.2281868118830176</v>
+        <v>0.1949053249820271</v>
       </c>
     </row>
     <row r="7">
@@ -572,25 +572,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00449351340343355</v>
+        <v>0.01160641164542359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006783867298743031</v>
+        <v>0.002110497307708295</v>
       </c>
       <c r="D7" t="n">
-        <v>1.14665081470193</v>
+        <v>1.469620788740304</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01332318233350072</v>
+        <v>0.02056724542427917</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00191998671683986</v>
+        <v>0.007438496073986227</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007067040090027096</v>
+        <v>0.0157743272168608</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1465354051340596</v>
+        <v>0.1185631212304727</v>
       </c>
     </row>
     <row r="8">
@@ -600,25 +600,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00178878384338136</v>
+        <v>0.009536076865655638</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004799508285177174</v>
+        <v>0.001926331599393779</v>
       </c>
       <c r="D8" t="n">
-        <v>0.651938736348508</v>
+        <v>1.085580795335966</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01837577351006568</v>
+        <v>0.03023052421355057</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0008216479015154429</v>
+        <v>0.005754940319859566</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002755919785247319</v>
+        <v>0.01331721341145166</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1438306755740074</v>
+        <v>0.1164927864507048</v>
       </c>
     </row>
     <row r="9">
@@ -628,25 +628,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009221525734566949</v>
+        <v>0.00727739748016039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005146664927447677</v>
+        <v>0.001764429781329991</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4080784672029402</v>
+        <v>0.7613382333757169</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00543092563102553</v>
+        <v>0.01433506537452428</v>
       </c>
       <c r="F9" t="n">
-        <v>-8.77876493788979e-05</v>
+        <v>0.003815499890623111</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00193209279629227</v>
+        <v>0.01073929506969786</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1429640443040828</v>
+        <v>0.1142341070652095</v>
       </c>
     </row>
     <row r="10">
@@ -656,25 +656,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0009278449723112492</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0006675664265184246</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4467095837228663</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.005301322601855609</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.0003820613893760819</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.00223775133399856</v>
-      </c>
+        <v>0.008847981047940032</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0.1429697367029373</v>
+        <v>0.1158046906329892</v>
       </c>
     </row>
     <row r="11">
@@ -684,7 +674,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02774612736661417</v>
+        <v>0.0270930316302893</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -692,7 +682,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1697880190972402</v>
+        <v>0.1340497412153384</v>
       </c>
     </row>
     <row r="12">
@@ -702,7 +692,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04861029241803849</v>
+        <v>0.04845712219404096</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -710,7 +700,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1906521841486646</v>
+        <v>0.1554138317790901</v>
       </c>
     </row>
     <row r="13">
@@ -720,7 +710,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06079080430653813</v>
+        <v>0.05989195624476158</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -728,7 +718,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2028326960371642</v>
+        <v>0.1668486658298107</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +728,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06852525123633543</v>
+        <v>0.06825378053622953</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -746,7 +736,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2105671429669615</v>
+        <v>0.1752104901212787</v>
       </c>
     </row>
     <row r="15">
@@ -756,7 +746,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07375975423020817</v>
+        <v>0.0740785428087717</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -764,7 +754,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2158016459608342</v>
+        <v>0.1810352523938208</v>
       </c>
     </row>
     <row r="16">
@@ -774,7 +764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07832406582688962</v>
+        <v>0.07898793123304286</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -782,7 +772,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2203659575575157</v>
+        <v>0.185944640818092</v>
       </c>
     </row>
     <row r="17">
@@ -792,7 +782,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08024976155873299</v>
+        <v>0.07957936531373674</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -800,7 +790,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2222916532893591</v>
+        <v>0.1865360748987859</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +800,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1420418917306261</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.1069567095850491</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01087930151352742</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-18.6302705007023</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.03755329832689248</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1283871727892488</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.08552624638084962</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08160421282394362</v>
+        <v>0.08246171007332959</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -836,7 +836,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2236461045545697</v>
+        <v>0.1894184196583787</v>
       </c>
     </row>
     <row r="20">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08536623179643665</v>
+        <v>0.08443691597725367</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -854,7 +854,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2274081235270627</v>
+        <v>0.1913936255623028</v>
       </c>
     </row>
     <row r="21">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08852254523386048</v>
+        <v>0.08744852886512905</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007734238420287054</v>
+        <v>0.008276865909264689</v>
       </c>
       <c r="D21" t="n">
-        <v>20.97924465425589</v>
+        <v>20.10065263639976</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05241414839685669</v>
+        <v>0.05494994659393142</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07325150451372635</v>
+        <v>0.07117535664272361</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1037935859539943</v>
+        <v>0.1037217010875345</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2305644369644865</v>
+        <v>0.1944052384501782</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09517295634993105</v>
+        <v>0.09399495848337078</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -900,7 +900,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.2372148480805571</v>
+        <v>0.2009516680684199</v>
       </c>
     </row>
     <row r="23">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0967133933919144</v>
+        <v>0.0956437197288324</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -918,7 +918,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.2387552851225405</v>
+        <v>0.2026004293138816</v>
       </c>
     </row>
     <row r="24">
@@ -928,25 +928,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.09947719211794674</v>
+        <v>0.09933894505425432</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007989822499425139</v>
+        <v>0.008991469368418069</v>
       </c>
       <c r="D24" t="n">
-        <v>22.66929835995995</v>
+        <v>21.88141561751501</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05416367795593075</v>
+        <v>0.05500252448082291</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08358117657126807</v>
+        <v>0.08163086045605795</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1153732076646247</v>
+        <v>0.1170470296524511</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2415190838485728</v>
+        <v>0.2062956546393035</v>
       </c>
     </row>
     <row r="25">
@@ -956,15 +956,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.099566873188907</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>0.1002298850499006</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.008735023889623637</v>
+      </c>
+      <c r="D25" t="n">
+        <v>22.06344703063166</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.05725570524262481</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.08304093042708108</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1174188396727207</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2416087649195331</v>
+        <v>0.2071865946349497</v>
       </c>
     </row>
     <row r="26">
@@ -974,15 +984,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.09966828127593025</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>0.09919511808624296</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.009216307508984183</v>
+      </c>
+      <c r="D26" t="n">
+        <v>21.33043148661273</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.06636201394291159</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.08104689763435589</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1173433385381295</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.2417101730065563</v>
+        <v>0.2061518276712921</v>
       </c>
     </row>
     <row r="27">
@@ -992,21 +1012,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1018811679504234</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1022434263271316</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.009302710074219846</v>
       </c>
       <c r="D27" t="n">
-        <v>563429321019.8464</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>20.04756509900071</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.07615426964768562</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0839287846934087</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1205580679608547</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.2439230596810495</v>
+        <v>0.2092001359121807</v>
       </c>
     </row>
     <row r="28">
@@ -1016,21 +1040,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.09816643378468899</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.09944184158901578</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.009319826563435848</v>
       </c>
       <c r="D28" t="n">
-        <v>18.91640028974876</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+        <v>18.55880300867425</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.09409764082176228</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08106222313164926</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1178214600463839</v>
+      </c>
       <c r="H28" t="n">
-        <v>0.2402083255153151</v>
+        <v>0.2063985511740649</v>
       </c>
     </row>
     <row r="29">
@@ -1040,25 +1068,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003094717979980682</v>
+        <v>0.01755680487140073</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0005717333957162541</v>
+        <v>0.005029041937002473</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6443647752318724</v>
+        <v>1.490034156925886</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004700414519145276</v>
+        <v>0.01626332096562937</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00197264861106527</v>
+        <v>0.007356858771473115</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004216787348896132</v>
+        <v>0.02775675097132797</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1451366097106067</v>
+        <v>0.1245135144564499</v>
       </c>
     </row>
   </sheetData>
